--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -91,7 +91,7 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
-    <t>0.0+/-0.0</t>
+    <t>0.001+/-0.0</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
@@ -100,880 +100,889 @@
     <t>0.818+/-0.0</t>
   </si>
   <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.743+/-0.013</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.972+/-0.007</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66+/-0.001</t>
+  </si>
+  <si>
+    <t>0.658+/-0.0</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.645+/-0.001</t>
+  </si>
+  <si>
+    <t>0.643+/-0.01</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.713+/-0.001</t>
+  </si>
+  <si>
+    <t>0.711+/-0.011</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.219+/-0.008</t>
+  </si>
+  <si>
+    <t>0.616+/-0.002</t>
+  </si>
+  <si>
+    <t>0.616+/-0.0</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.588+/-0.001</t>
+  </si>
+  <si>
+    <t>0.587+/-0.009</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.779+/-0.005</t>
+  </si>
+  <si>
+    <t>0.779+/-0.014</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>0.008+/-0.003</t>
+  </si>
+  <si>
+    <t>0.629+/-0.001</t>
+  </si>
+  <si>
+    <t>0.629+/-0.0</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.621+/-0.002</t>
+  </si>
+  <si>
+    <t>0.622+/-0.013</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.661+/-0.003</t>
+  </si>
+  <si>
+    <t>0.662+/-0.02</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.012+/-0.003</t>
+  </si>
+  <si>
+    <t>0.829+/-0.005</t>
+  </si>
+  <si>
+    <t>0.772+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.805+/-0.015</t>
+  </si>
+  <si>
+    <t>0.746+/-0.013</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.87+/-0.024</t>
+  </si>
+  <si>
+    <t>0.827+/-0.032</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>3.965+/-0.567</t>
+  </si>
+  <si>
+    <t>0.816+/-0.005</t>
+  </si>
+  <si>
+    <t>0.75+/-0.0</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.798+/-0.03</t>
+  </si>
+  <si>
+    <t>0.735+/-0.027</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.851+/-0.06</t>
+  </si>
+  <si>
+    <t>0.79+/-0.053</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.146+/-0.012</t>
+  </si>
+  <si>
+    <t>0.797+/-0.005</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.787+/-0.028</t>
+  </si>
+  <si>
+    <t>0.73+/-0.021</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.819+/-0.047</t>
+  </si>
+  <si>
+    <t>0.762+/-0.052</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.212+/-0.013</t>
+  </si>
+  <si>
+    <t>0.756+/-0.002</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.727+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.014</t>
+  </si>
+  <si>
+    <t>0.334</t>
+  </si>
+  <si>
+    <t>0.821+/-0.003</t>
+  </si>
+  <si>
+    <t>0.805+/-0.011</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>32.279+/-1.914</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.757+/-0.012</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>0.99+/-0.005</t>
+  </si>
+  <si>
     <t>0.631</t>
   </si>
   <si>
-    <t>0.741+/-0.013</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.976+/-0.003</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.002+/-0.001</t>
-  </si>
-  <si>
-    <t>0.66+/-0.002</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681+/-0.002</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.666+/-0.002</t>
+  </si>
+  <si>
+    <t>0.664+/-0.01</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.726+/-0.002</t>
+  </si>
+  <si>
+    <t>0.726+/-0.021</t>
+  </si>
+  <si>
+    <t>0.237+/-0.026</t>
+  </si>
+  <si>
+    <t>0.636+/-0.002</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.613+/-0.002</t>
+  </si>
+  <si>
+    <t>0.613+/-0.011</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.737+/-0.005</t>
+  </si>
+  <si>
+    <t>0.738+/-0.018</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.656+/-0.001</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.646+/-0.001</t>
+  </si>
+  <si>
+    <t>0.646+/-0.011</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.691+/-0.002</t>
+  </si>
+  <si>
+    <t>0.69+/-0.012</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.862+/-0.006</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.845+/-0.009</t>
+  </si>
+  <si>
+    <t>0.791+/-0.017</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.888+/-0.022</t>
+  </si>
+  <si>
+    <t>0.853+/-0.021</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>4.816+/-0.743</t>
+  </si>
+  <si>
+    <t>0.839+/-0.005</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.815+/-0.024</t>
+  </si>
+  <si>
+    <t>0.761+/-0.021</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.88+/-0.038</t>
+  </si>
+  <si>
+    <t>0.829+/-0.047</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.16+/-0.014</t>
+  </si>
+  <si>
+    <t>0.821+/-0.004</t>
+  </si>
+  <si>
+    <t>0.781+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796+/-0.034</t>
+  </si>
+  <si>
+    <t>0.758+/-0.031</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.868+/-0.06</t>
+  </si>
+  <si>
+    <t>0.834+/-0.067</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.222+/-0.006</t>
+  </si>
+  <si>
+    <t>0.784+/-0.002</t>
+  </si>
+  <si>
+    <t>0.767+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.758+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.014</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.836+/-0.004</t>
+  </si>
+  <si>
+    <t>0.822+/-0.019</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>36.429+/-2.497</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.665+/-0.008</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.926+/-0.01</t>
   </si>
   <si>
     <t>0.61</t>
   </si>
   <si>
-    <t>0.647+/-0.001</t>
-  </si>
-  <si>
-    <t>0.645+/-0.015</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>0.702+/-0.003</t>
-  </si>
-  <si>
-    <t>0.7+/-0.024</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.181+/-0.009</t>
-  </si>
-  <si>
-    <t>0.619+/-0.001</t>
-  </si>
-  <si>
-    <t>0.619+/-0.0</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.594+/-0.002</t>
-  </si>
-  <si>
-    <t>0.594+/-0.013</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.752+/-0.005</t>
-  </si>
-  <si>
-    <t>0.753+/-0.025</t>
-  </si>
-  <si>
-    <t>0.701</t>
+    <t>0.593+/-0.001</t>
+  </si>
+  <si>
+    <t>0.591+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.597+/-0.001</t>
+  </si>
+  <si>
+    <t>0.595+/-0.014</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.576+/-0.003</t>
+  </si>
+  <si>
+    <t>0.572+/-0.024</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.105+/-0.01</t>
+  </si>
+  <si>
+    <t>0.571+/-0.003</t>
+  </si>
+  <si>
+    <t>0.57+/-0.0</t>
+  </si>
+  <si>
+    <t>0.579+/-0.003</t>
+  </si>
+  <si>
+    <t>0.579+/-0.015</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.522+/-0.033</t>
+  </si>
+  <si>
+    <t>0.52+/-0.04</t>
+  </si>
+  <si>
+    <t>0.507</t>
   </si>
   <si>
     <t>0.005+/-0.001</t>
   </si>
   <si>
-    <t>0.633+/-0.001</t>
-  </si>
-  <si>
-    <t>0.633+/-0.0</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.627+/-0.001</t>
-  </si>
-  <si>
-    <t>0.627+/-0.015</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.66+/-0.001</t>
-  </si>
-  <si>
-    <t>0.659+/-0.019</t>
-  </si>
-  <si>
-    <t>0.581</t>
+    <t>0.564+/-0.001</t>
+  </si>
+  <si>
+    <t>0.561+/-0.0</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.567+/-0.001</t>
+  </si>
+  <si>
+    <t>0.565+/-0.01</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.54+/-0.002</t>
+  </si>
+  <si>
+    <t>0.536+/-0.022</t>
+  </si>
+  <si>
+    <t>0.557</t>
   </si>
   <si>
     <t>0.007+/-0.001</t>
   </si>
   <si>
-    <t>0.831+/-0.008</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.798+/-0.012</t>
-  </si>
-  <si>
-    <t>0.745+/-0.012</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.888+/-0.018</t>
-  </si>
-  <si>
-    <t>0.838+/-0.029</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>3.577+/-1.112</t>
-  </si>
-  <si>
-    <t>0.816+/-0.007</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.792+/-0.013</t>
-  </si>
-  <si>
-    <t>0.726+/-0.017</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.858+/-0.023</t>
-  </si>
-  <si>
-    <t>0.788+/-0.031</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.132+/-0.006</t>
-  </si>
-  <si>
-    <t>0.799+/-0.006</t>
-  </si>
-  <si>
-    <t>0.734+/-0.0</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>0.769+/-0.02</t>
-  </si>
-  <si>
-    <t>0.71+/-0.018</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.855+/-0.032</t>
-  </si>
-  <si>
-    <t>0.795+/-0.046</t>
+    <t>0.731+/-0.006</t>
+  </si>
+  <si>
+    <t>0.655+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.715+/-0.015</t>
+  </si>
+  <si>
+    <t>0.642+/-0.016</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.772+/-0.041</t>
+  </si>
+  <si>
+    <t>0.705+/-0.045</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>4.532+/-0.755</t>
+  </si>
+  <si>
+    <t>0.744+/-0.003</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
+  </si>
+  <si>
+    <t>0.749+/-0.018</t>
+  </si>
+  <si>
+    <t>0.668+/-0.023</t>
+  </si>
+  <si>
+    <t>0.737+/-0.034</t>
+  </si>
+  <si>
+    <t>0.661+/-0.03</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.113+/-0.008</t>
+  </si>
+  <si>
+    <t>0.727+/-0.004</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.742+/-0.01</t>
+  </si>
+  <si>
+    <t>0.676+/-0.018</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.697+/-0.028</t>
+  </si>
+  <si>
+    <t>0.638+/-0.021</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.156+/-0.006</t>
+  </si>
+  <si>
+    <t>0.673+/-0.002</t>
+  </si>
+  <si>
+    <t>0.637+/-0.0</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.671+/-0.003</t>
+  </si>
+  <si>
+    <t>0.636+/-0.012</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.678+/-0.009</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>32.881+/-2.134</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.652+/-0.008</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.89+/-0.013</t>
+  </si>
+  <si>
+    <t>0.567+/-0.002</t>
+  </si>
+  <si>
+    <t>0.563+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57+/-0.002</t>
+  </si>
+  <si>
+    <t>0.568+/-0.007</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.539+/-0.005</t>
+  </si>
+  <si>
+    <t>0.533+/-0.018</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.118+/-0.005</t>
+  </si>
+  <si>
+    <t>0.552+/-0.002</t>
+  </si>
+  <si>
+    <t>0.55+/-0.0</t>
+  </si>
+  <si>
+    <t>0.561+/-0.003</t>
+  </si>
+  <si>
+    <t>0.559+/-0.014</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.477+/-0.036</t>
+  </si>
+  <si>
+    <t>0.474+/-0.038</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.554+/-0.001</t>
+  </si>
+  <si>
+    <t>0.555+/-0.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.557+/-0.001</t>
+  </si>
+  <si>
+    <t>0.557+/-0.019</t>
+  </si>
+  <si>
+    <t>0.528+/-0.003</t>
+  </si>
+  <si>
+    <t>0.528+/-0.028</t>
   </si>
   <si>
     <t>0.525</t>
   </si>
   <si>
-    <t>0.193+/-0.009</t>
-  </si>
-  <si>
-    <t>0.761+/-0.001</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.735+/-0.002</t>
-  </si>
-  <si>
-    <t>0.714+/-0.009</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.818+/-0.004</t>
-  </si>
-  <si>
-    <t>0.797+/-0.014</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>33.011+/-1.614</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.842+/-0.0</t>
-  </si>
-  <si>
-    <t>0.653</t>
-  </si>
-  <si>
-    <t>0.765+/-0.012</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.987+/-0.005</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.677+/-0.001</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.664+/-0.001</t>
-  </si>
-  <si>
-    <t>0.661+/-0.012</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.719+/-0.001</t>
-  </si>
-  <si>
-    <t>0.717+/-0.013</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.229+/-0.008</t>
-  </si>
-  <si>
-    <t>0.634+/-0.002</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.608+/-0.002</t>
-  </si>
-  <si>
-    <t>0.608+/-0.013</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.755+/-0.006</t>
-  </si>
-  <si>
-    <t>0.755+/-0.022</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.639+/-0.001</t>
-  </si>
-  <si>
-    <t>0.638+/-0.015</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.678+/-0.002</t>
-  </si>
-  <si>
-    <t>0.679+/-0.016</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.861+/-0.004</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.836+/-0.015</t>
-  </si>
-  <si>
-    <t>0.776+/-0.014</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.899+/-0.019</t>
-  </si>
-  <si>
-    <t>0.859+/-0.029</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>3.589+/-0.545</t>
-  </si>
-  <si>
-    <t>0.852+/-0.003</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.822+/-0.012</t>
-  </si>
-  <si>
-    <t>0.771+/-0.014</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.901+/-0.018</t>
-  </si>
-  <si>
-    <t>0.854+/-0.031</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.141+/-0.01</t>
-  </si>
-  <si>
-    <t>0.836+/-0.004</t>
-  </si>
-  <si>
-    <t>0.793+/-0.0</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.809+/-0.025</t>
-  </si>
-  <si>
-    <t>0.767+/-0.02</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.883+/-0.04</t>
-  </si>
-  <si>
-    <t>0.845+/-0.05</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.203+/-0.007</t>
-  </si>
-  <si>
-    <t>0.779+/-0.001</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.757+/-0.002</t>
-  </si>
-  <si>
-    <t>0.74+/-0.011</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.822+/-0.004</t>
-  </si>
-  <si>
-    <t>0.806+/-0.015</t>
-  </si>
-  <si>
-    <t>37.691+/-1.457</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.668+/-0.012</t>
-  </si>
-  <si>
-    <t>0.92+/-0.008</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593+/-0.001</t>
-  </si>
-  <si>
-    <t>0.591+/-0.0</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.599+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.016</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.564+/-0.003</t>
-  </si>
-  <si>
-    <t>0.564+/-0.02</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.109+/-0.01</t>
-  </si>
-  <si>
-    <t>0.58+/-0.002</t>
-  </si>
-  <si>
-    <t>0.581+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.584+/-0.004</t>
-  </si>
-  <si>
-    <t>0.585+/-0.014</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.556+/-0.027</t>
-  </si>
-  <si>
-    <t>0.557+/-0.036</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.576+/-0.002</t>
-  </si>
-  <si>
-    <t>0.576+/-0.0</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.577+/-0.002</t>
-  </si>
-  <si>
-    <t>0.576+/-0.01</t>
+    <t>0.71+/-0.012</t>
+  </si>
+  <si>
+    <t>0.632+/-0.0</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.689+/-0.021</t>
+  </si>
+  <si>
+    <t>0.617+/-0.011</t>
   </si>
   <si>
     <t>0.341</t>
   </si>
   <si>
-    <t>0.571+/-0.005</t>
-  </si>
-  <si>
-    <t>0.572+/-0.022</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.732+/-0.01</t>
-  </si>
-  <si>
-    <t>0.657+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.709+/-0.016</t>
-  </si>
-  <si>
-    <t>0.64+/-0.014</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.788+/-0.029</t>
-  </si>
-  <si>
-    <t>0.721+/-0.036</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>3.592+/-0.62</t>
-  </si>
-  <si>
-    <t>0.752+/-0.006</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751+/-0.022</t>
-  </si>
-  <si>
-    <t>0.668+/-0.035</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.756+/-0.051</t>
-  </si>
-  <si>
-    <t>0.676+/-0.056</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.11+/-0.01</t>
-  </si>
-  <si>
-    <t>0.721+/-0.004</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.722+/-0.018</t>
-  </si>
-  <si>
-    <t>0.663+/-0.023</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.72+/-0.036</t>
-  </si>
-  <si>
-    <t>0.659+/-0.041</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.157+/-0.009</t>
-  </si>
-  <si>
-    <t>0.673+/-0.002</t>
-  </si>
-  <si>
-    <t>0.638+/-0.0</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.672+/-0.003</t>
-  </si>
-  <si>
-    <t>0.637+/-0.015</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.678+/-0.007</t>
-  </si>
-  <si>
-    <t>0.646+/-0.025</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>32.909+/-0.605</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.654+/-0.011</t>
-  </si>
-  <si>
-    <t>0.896+/-0.013</t>
-  </si>
-  <si>
-    <t>0.573+/-0.002</t>
-  </si>
-  <si>
-    <t>0.572+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.576+/-0.014</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.543+/-0.004</t>
-  </si>
-  <si>
-    <t>0.542+/-0.018</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.117+/-0.008</t>
-  </si>
-  <si>
-    <t>0.553+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.567+/-0.003</t>
-  </si>
-  <si>
-    <t>0.568+/-0.01</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.448+/-0.02</t>
-  </si>
-  <si>
-    <t>0.447+/-0.022</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.555+/-0.002</t>
-  </si>
-  <si>
-    <t>0.558+/-0.002</t>
-  </si>
-  <si>
-    <t>0.557+/-0.012</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.53+/-0.003</t>
-  </si>
-  <si>
-    <t>0.529+/-0.017</t>
-  </si>
-  <si>
-    <t>0.529</t>
-  </si>
-  <si>
-    <t>0.711+/-0.01</t>
-  </si>
-  <si>
-    <t>0.7+/-0.03</t>
-  </si>
-  <si>
-    <t>0.625+/-0.023</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.748+/-0.067</t>
-  </si>
-  <si>
-    <t>0.676+/-0.072</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>3.756+/-0.647</t>
-  </si>
-  <si>
-    <t>0.72+/-0.009</t>
-  </si>
-  <si>
-    <t>0.709+/-0.022</t>
-  </si>
-  <si>
-    <t>0.631+/-0.017</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.752+/-0.059</t>
-  </si>
-  <si>
-    <t>0.671+/-0.059</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.11+/-0.012</t>
-  </si>
-  <si>
-    <t>0.697+/-0.008</t>
-  </si>
-  <si>
-    <t>0.623+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.699+/-0.021</t>
-  </si>
-  <si>
-    <t>0.623+/-0.014</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.697+/-0.055</t>
-  </si>
-  <si>
-    <t>0.628+/-0.061</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.156+/-0.005</t>
-  </si>
-  <si>
-    <t>0.656+/-0.003</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652+/-0.002</t>
-  </si>
-  <si>
-    <t>0.611+/-0.013</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.67+/-0.012</t>
-  </si>
-  <si>
-    <t>0.63+/-0.023</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>30.742+/-0.421</t>
+    <t>0.771+/-0.038</t>
+  </si>
+  <si>
+    <t>0.698+/-0.048</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>3.829+/-0.825</t>
+  </si>
+  <si>
+    <t>0.712+/-0.004</t>
+  </si>
+  <si>
+    <t>0.651+/-0.0</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>0.763+/-0.028</t>
+  </si>
+  <si>
+    <t>0.688+/-0.033</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.62+/-0.046</t>
+  </si>
+  <si>
+    <t>0.562+/-0.044</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.102+/-0.01</t>
+  </si>
+  <si>
+    <t>0.701+/-0.007</t>
+  </si>
+  <si>
+    <t>0.752+/-0.015</t>
+  </si>
+  <si>
+    <t>0.691+/-0.022</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.599+/-0.024</t>
+  </si>
+  <si>
+    <t>0.548+/-0.026</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.148+/-0.007</t>
+  </si>
+  <si>
+    <t>0.658+/-0.002</t>
+  </si>
+  <si>
+    <t>0.62+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.647+/-0.003</t>
+  </si>
+  <si>
+    <t>0.612+/-0.011</t>
+  </si>
+  <si>
+    <t>0.695+/-0.01</t>
+  </si>
+  <si>
+    <t>0.657+/-0.023</t>
+  </si>
+  <si>
+    <t>29.767+/-0.192</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1468,7 @@
         <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1491,7 +1500,7 @@
         <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1523,7 +1532,7 @@
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1555,7 +1564,7 @@
         <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1587,7 +1596,7 @@
         <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1619,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1651,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1683,7 +1692,7 @@
         <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1739,25 +1748,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1768,28 +1777,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1797,31 +1806,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1835,25 +1844,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1864,28 +1873,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1896,28 +1905,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1931,25 +1940,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1960,28 +1969,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1992,28 +2001,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2024,28 +2033,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2101,25 +2110,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2130,28 +2139,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2159,31 +2168,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2191,31 +2200,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2223,31 +2232,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2258,28 +2267,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2287,31 +2296,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2319,31 +2328,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" t="s">
         <v>221</v>
-      </c>
-      <c r="H9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2354,25 +2363,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
         <v>251</v>
@@ -2386,25 +2395,25 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J11" t="s">
         <v>252</v>
@@ -2463,25 +2472,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2492,28 +2501,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2521,31 +2530,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2553,31 +2562,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2585,31 +2594,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2620,28 +2629,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="J7" t="s">
-        <v>314</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2649,31 +2658,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2681,31 +2690,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2716,28 +2725,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J10" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2748,28 +2757,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="413">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,22 +73,34 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
@@ -97,892 +109,1153 @@
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.818+/-0.0</t>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.33+/-0.019</t>
+  </si>
+  <si>
+    <t>0.638+/-0.038</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.719+/-0.025</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.66+/-0.005</t>
+  </si>
+  <si>
+    <t>0.628+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.648+/-0.005</t>
+  </si>
+  <si>
+    <t>0.308+/-0.007</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.701+/-0.007</t>
+  </si>
+  <si>
+    <t>0.677+/-0.047</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.727+/-0.005</t>
+  </si>
+  <si>
+    <t>0.712+/-0.016</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.13+/-0.013</t>
+  </si>
+  <si>
+    <t>0.622+/-0.002</t>
+  </si>
+  <si>
+    <t>0.522+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.592+/-0.002</t>
+  </si>
+  <si>
+    <t>0.263+/-0.009</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>0.784+/-0.005</t>
+  </si>
+  <si>
+    <t>0.763+/-0.026</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.692+/-0.002</t>
+  </si>
+  <si>
+    <t>0.681+/-0.021</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.013+/-0.003</t>
+  </si>
+  <si>
+    <t>0.626+/-0.001</t>
+  </si>
+  <si>
+    <t>0.608+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.62+/-0.001</t>
+  </si>
+  <si>
+    <t>0.287+/-0.015</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.65+/-0.002</t>
+  </si>
+  <si>
+    <t>0.637+/-0.039</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.681+/-0.003</t>
+  </si>
+  <si>
+    <t>0.667+/-0.024</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.028+/-0.037</t>
+  </si>
+  <si>
+    <t>0.829+/-0.006</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.814+/-0.013</t>
+  </si>
+  <si>
+    <t>0.356+/-0.013</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.853+/-0.019</t>
+  </si>
+  <si>
+    <t>0.566+/-0.045</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.91+/-0.005</t>
+  </si>
+  <si>
+    <t>0.723+/-0.017</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>14.974+/-7.243</t>
+  </si>
+  <si>
+    <t>0.823+/-0.008</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797+/-0.022</t>
+  </si>
+  <si>
+    <t>0.347+/-0.022</t>
+  </si>
+  <si>
+    <t>0.869+/-0.032</t>
+  </si>
+  <si>
+    <t>0.592+/-0.065</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.912+/-0.006</t>
+  </si>
+  <si>
+    <t>0.694+/-0.02</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.201+/-0.022</t>
+  </si>
+  <si>
+    <t>0.801+/-0.008</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.774+/-0.024</t>
+  </si>
+  <si>
+    <t>0.326+/-0.024</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.854+/-0.041</t>
+  </si>
+  <si>
+    <t>0.587+/-0.033</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.899+/-0.006</t>
+  </si>
+  <si>
+    <t>0.687+/-0.016</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.287+/-0.007</t>
+  </si>
+  <si>
+    <t>0.76+/-0.002</t>
+  </si>
+  <si>
+    <t>0.673+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728+/-0.003</t>
+  </si>
+  <si>
+    <t>0.345+/-0.012</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>0.831+/-0.007</t>
+  </si>
+  <si>
+    <t>0.695+/-0.048</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.841+/-0.001</t>
+  </si>
+  <si>
+    <t>0.738+/-0.017</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>53.51+/-0.795</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.002+/-0.002</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.28+/-0.023</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.674+/-0.054</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.737+/-0.025</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.678+/-0.003</t>
+  </si>
+  <si>
+    <t>0.641+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.663+/-0.003</t>
+  </si>
+  <si>
+    <t>0.251+/-0.013</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.723+/-0.003</t>
+  </si>
+  <si>
+    <t>0.7+/-0.034</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.755+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.021</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.351+/-0.031</t>
+  </si>
+  <si>
+    <t>0.639+/-0.004</t>
+  </si>
+  <si>
+    <t>0.544+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.61+/-0.004</t>
+  </si>
+  <si>
+    <t>0.21+/-0.01</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.768+/-0.006</t>
+  </si>
+  <si>
+    <t>0.741+/-0.038</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.719+/-0.004</t>
+  </si>
+  <si>
+    <t>0.703+/-0.024</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.012+/-0.001</t>
+  </si>
+  <si>
+    <t>0.651+/-0.002</t>
+  </si>
+  <si>
+    <t>0.623+/-0.0</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>0.641+/-0.002</t>
+  </si>
+  <si>
+    <t>0.234+/-0.011</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.687+/-0.005</t>
+  </si>
+  <si>
+    <t>0.666+/-0.031</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.708+/-0.002</t>
+  </si>
+  <si>
+    <t>0.69+/-0.022</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.015+/-0.006</t>
+  </si>
+  <si>
+    <t>0.871+/-0.01</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.851+/-0.015</t>
+  </si>
+  <si>
+    <t>0.301+/-0.025</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.901+/-0.021</t>
+  </si>
+  <si>
+    <t>0.543+/-0.032</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.942+/-0.006</t>
+  </si>
+  <si>
+    <t>0.735+/-0.021</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>12.416+/-3.134</t>
+  </si>
+  <si>
+    <t>0.849+/-0.008</t>
+  </si>
+  <si>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.823+/-0.016</t>
+  </si>
+  <si>
+    <t>0.284+/-0.033</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.89+/-0.02</t>
+  </si>
+  <si>
+    <t>0.559+/-0.072</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.934+/-0.004</t>
+  </si>
+  <si>
+    <t>0.702+/-0.036</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.228+/-0.006</t>
+  </si>
+  <si>
+    <t>0.829+/-0.01</t>
+  </si>
+  <si>
+    <t>0.715+/-0.0</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>0.8+/-0.013</t>
+  </si>
+  <si>
+    <t>0.281+/-0.028</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.88+/-0.029</t>
+  </si>
+  <si>
+    <t>0.576+/-0.081</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.922+/-0.006</t>
+  </si>
+  <si>
+    <t>0.713+/-0.033</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.344+/-0.018</t>
+  </si>
+  <si>
+    <t>0.785+/-0.004</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.759+/-0.003</t>
+  </si>
+  <si>
+    <t>0.282+/-0.02</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.837+/-0.009</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.87+/-0.002</t>
+  </si>
+  <si>
+    <t>0.743+/-0.024</t>
+  </si>
+  <si>
+    <t>57.706+/-0.921</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.554+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.329+/-0.015</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.585+/-0.028</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.591+/-0.023</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.591+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.595+/-0.003</t>
+  </si>
+  <si>
+    <t>0.356+/-0.015</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.571+/-0.006</t>
+  </si>
+  <si>
+    <t>0.56+/-0.016</t>
+  </si>
+  <si>
+    <t>0.632+/-0.003</t>
+  </si>
+  <si>
+    <t>0.623+/-0.019</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.158+/-0.019</t>
+  </si>
+  <si>
+    <t>0.568+/-0.003</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.583+/-0.004</t>
+  </si>
+  <si>
+    <t>0.344+/-0.016</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.481+/-0.035</t>
+  </si>
+  <si>
+    <t>0.473+/-0.032</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.606+/-0.003</t>
+  </si>
+  <si>
+    <t>0.6+/-0.018</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.003</t>
+  </si>
+  <si>
+    <t>0.575+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.57+/-0.003</t>
+  </si>
+  <si>
+    <t>0.334+/-0.015</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.543+/-0.007</t>
+  </si>
+  <si>
+    <t>0.537+/-0.03</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.601+/-0.003</t>
+  </si>
+  <si>
+    <t>0.596+/-0.015</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.734+/-0.006</t>
+  </si>
+  <si>
+    <t>0.59+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719+/-0.017</t>
+  </si>
+  <si>
+    <t>0.34+/-0.017</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.771+/-0.035</t>
+  </si>
+  <si>
+    <t>0.511+/-0.052</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.813+/-0.007</t>
+  </si>
+  <si>
+    <t>0.601+/-0.014</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>9.29+/-1.599</t>
+  </si>
+  <si>
+    <t>0.745+/-0.013</t>
+  </si>
+  <si>
+    <t>0.611+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.753+/-0.017</t>
+  </si>
+  <si>
+    <t>0.342+/-0.017</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.731+/-0.026</t>
+  </si>
+  <si>
+    <t>0.435+/-0.042</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.839+/-0.011</t>
+  </si>
+  <si>
+    <t>0.573+/-0.02</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.165+/-0.008</t>
+  </si>
+  <si>
+    <t>0.728+/-0.007</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.341+/-0.016</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.709+/-0.038</t>
+  </si>
+  <si>
+    <t>0.428+/-0.035</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.82+/-0.009</t>
+  </si>
+  <si>
+    <t>0.573+/-0.015</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.246+/-0.012</t>
+  </si>
+  <si>
+    <t>0.676+/-0.004</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.673+/-0.004</t>
+  </si>
+  <si>
+    <t>0.365+/-0.018</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.685+/-0.014</t>
+  </si>
+  <si>
+    <t>0.546+/-0.028</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.75+/-0.003</t>
+  </si>
+  <si>
+    <t>0.629+/-0.019</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>50.558+/-0.667</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.539+/-0.0</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.35+/-0.017</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.576+/-0.024</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.571+/-0.021</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.571+/-0.003</t>
+  </si>
+  <si>
+    <t>0.367+/-0.016</t>
   </si>
   <si>
     <t>0.638</t>
   </si>
   <si>
-    <t>0.743+/-0.013</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.972+/-0.007</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.66+/-0.001</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.645+/-0.001</t>
-  </si>
-  <si>
-    <t>0.643+/-0.01</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>0.713+/-0.001</t>
-  </si>
-  <si>
-    <t>0.711+/-0.011</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.219+/-0.008</t>
-  </si>
-  <si>
-    <t>0.616+/-0.002</t>
-  </si>
-  <si>
-    <t>0.616+/-0.0</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.588+/-0.001</t>
-  </si>
-  <si>
-    <t>0.587+/-0.009</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.779+/-0.005</t>
-  </si>
-  <si>
-    <t>0.779+/-0.014</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.008+/-0.003</t>
-  </si>
-  <si>
-    <t>0.629+/-0.001</t>
-  </si>
-  <si>
-    <t>0.629+/-0.0</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.621+/-0.002</t>
-  </si>
-  <si>
-    <t>0.622+/-0.013</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.661+/-0.003</t>
-  </si>
-  <si>
-    <t>0.662+/-0.02</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.012+/-0.003</t>
-  </si>
-  <si>
-    <t>0.829+/-0.005</t>
-  </si>
-  <si>
-    <t>0.772+/-0.0</t>
-  </si>
-  <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.805+/-0.015</t>
-  </si>
-  <si>
-    <t>0.746+/-0.013</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.87+/-0.024</t>
-  </si>
-  <si>
-    <t>0.827+/-0.032</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>3.965+/-0.567</t>
-  </si>
-  <si>
-    <t>0.816+/-0.005</t>
-  </si>
-  <si>
-    <t>0.75+/-0.0</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.798+/-0.03</t>
-  </si>
-  <si>
-    <t>0.735+/-0.027</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.851+/-0.06</t>
-  </si>
-  <si>
-    <t>0.79+/-0.053</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.146+/-0.012</t>
-  </si>
-  <si>
-    <t>0.797+/-0.005</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.787+/-0.028</t>
-  </si>
-  <si>
-    <t>0.73+/-0.021</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.819+/-0.047</t>
-  </si>
-  <si>
-    <t>0.762+/-0.052</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.212+/-0.013</t>
-  </si>
-  <si>
-    <t>0.756+/-0.002</t>
-  </si>
-  <si>
-    <t>0.736+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.727+/-0.003</t>
-  </si>
-  <si>
-    <t>0.708+/-0.014</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.821+/-0.003</t>
-  </si>
-  <si>
-    <t>0.805+/-0.011</t>
-  </si>
-  <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>32.279+/-1.914</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.836+/-0.0</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.757+/-0.012</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.99+/-0.005</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681+/-0.002</t>
-  </si>
-  <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.666+/-0.002</t>
-  </si>
-  <si>
-    <t>0.664+/-0.01</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.726+/-0.002</t>
-  </si>
-  <si>
-    <t>0.726+/-0.021</t>
-  </si>
-  <si>
-    <t>0.237+/-0.026</t>
-  </si>
-  <si>
-    <t>0.636+/-0.002</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.613+/-0.002</t>
-  </si>
-  <si>
-    <t>0.613+/-0.011</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.737+/-0.005</t>
-  </si>
-  <si>
-    <t>0.738+/-0.018</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.656+/-0.001</t>
-  </si>
-  <si>
-    <t>0.656+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.646+/-0.001</t>
-  </si>
-  <si>
-    <t>0.646+/-0.011</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>0.691+/-0.002</t>
-  </si>
-  <si>
-    <t>0.69+/-0.012</t>
-  </si>
-  <si>
-    <t>0.606</t>
+    <t>0.547+/-0.006</t>
+  </si>
+  <si>
+    <t>0.54+/-0.017</t>
+  </si>
+  <si>
+    <t>0.605+/-0.003</t>
+  </si>
+  <si>
+    <t>0.596+/-0.018</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.153+/-0.015</t>
+  </si>
+  <si>
+    <t>0.556+/-0.003</t>
+  </si>
+  <si>
+    <t>0.572+/-0.0</t>
+  </si>
+  <si>
+    <t>0.564+/-0.006</t>
+  </si>
+  <si>
+    <t>0.358+/-0.017</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.5+/-0.055</t>
+  </si>
+  <si>
+    <t>0.488+/-0.059</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.587+/-0.003</t>
+  </si>
+  <si>
+    <t>0.58+/-0.023</t>
+  </si>
+  <si>
+    <t>0.591</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.862+/-0.006</t>
-  </si>
-  <si>
-    <t>0.813+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.845+/-0.009</t>
-  </si>
-  <si>
-    <t>0.791+/-0.017</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.888+/-0.022</t>
-  </si>
-  <si>
-    <t>0.853+/-0.021</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>4.816+/-0.743</t>
-  </si>
-  <si>
-    <t>0.839+/-0.005</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.815+/-0.024</t>
-  </si>
-  <si>
-    <t>0.761+/-0.021</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.88+/-0.038</t>
-  </si>
-  <si>
-    <t>0.829+/-0.047</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.16+/-0.014</t>
-  </si>
-  <si>
-    <t>0.821+/-0.004</t>
-  </si>
-  <si>
-    <t>0.781+/-0.0</t>
-  </si>
-  <si>
-    <t>0.796+/-0.034</t>
-  </si>
-  <si>
-    <t>0.758+/-0.031</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.868+/-0.06</t>
-  </si>
-  <si>
-    <t>0.834+/-0.067</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.222+/-0.006</t>
-  </si>
-  <si>
-    <t>0.784+/-0.002</t>
-  </si>
-  <si>
-    <t>0.767+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.758+/-0.003</t>
-  </si>
-  <si>
-    <t>0.741+/-0.014</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.836+/-0.004</t>
-  </si>
-  <si>
-    <t>0.822+/-0.019</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>36.429+/-2.497</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.665+/-0.008</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.926+/-0.01</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.593+/-0.001</t>
-  </si>
-  <si>
-    <t>0.591+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.597+/-0.001</t>
-  </si>
-  <si>
-    <t>0.595+/-0.014</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.576+/-0.003</t>
-  </si>
-  <si>
-    <t>0.572+/-0.024</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.105+/-0.01</t>
-  </si>
-  <si>
-    <t>0.571+/-0.003</t>
-  </si>
-  <si>
-    <t>0.57+/-0.0</t>
-  </si>
-  <si>
-    <t>0.579+/-0.003</t>
-  </si>
-  <si>
-    <t>0.579+/-0.015</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.522+/-0.033</t>
-  </si>
-  <si>
-    <t>0.52+/-0.04</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.001</t>
+    <t>0.555+/-0.003</t>
   </si>
   <si>
     <t>0.561+/-0.0</t>
   </si>
   <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.567+/-0.001</t>
-  </si>
-  <si>
-    <t>0.565+/-0.01</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.54+/-0.002</t>
-  </si>
-  <si>
-    <t>0.536+/-0.022</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.731+/-0.006</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.715+/-0.015</t>
-  </si>
-  <si>
-    <t>0.642+/-0.016</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.772+/-0.041</t>
-  </si>
-  <si>
-    <t>0.705+/-0.045</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>4.532+/-0.755</t>
-  </si>
-  <si>
-    <t>0.744+/-0.003</t>
-  </si>
-  <si>
-    <t>0.665+/-0.0</t>
-  </si>
-  <si>
-    <t>0.749+/-0.018</t>
-  </si>
-  <si>
-    <t>0.668+/-0.023</t>
-  </si>
-  <si>
-    <t>0.737+/-0.034</t>
-  </si>
-  <si>
-    <t>0.661+/-0.03</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.113+/-0.008</t>
-  </si>
-  <si>
-    <t>0.727+/-0.004</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.742+/-0.01</t>
-  </si>
-  <si>
-    <t>0.676+/-0.018</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.697+/-0.028</t>
-  </si>
-  <si>
-    <t>0.638+/-0.021</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.156+/-0.006</t>
-  </si>
-  <si>
-    <t>0.673+/-0.002</t>
-  </si>
-  <si>
-    <t>0.637+/-0.0</t>
-  </si>
-  <si>
-    <t>0.607</t>
-  </si>
-  <si>
-    <t>0.671+/-0.003</t>
-  </si>
-  <si>
-    <t>0.636+/-0.012</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.678+/-0.009</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>32.881+/-2.134</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.652+/-0.008</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.89+/-0.013</t>
-  </si>
-  <si>
-    <t>0.567+/-0.002</t>
-  </si>
-  <si>
-    <t>0.563+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57+/-0.002</t>
-  </si>
-  <si>
-    <t>0.568+/-0.007</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.539+/-0.005</t>
-  </si>
-  <si>
-    <t>0.533+/-0.018</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.118+/-0.005</t>
-  </si>
-  <si>
-    <t>0.552+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.561+/-0.003</t>
-  </si>
-  <si>
-    <t>0.559+/-0.014</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.477+/-0.036</t>
-  </si>
-  <si>
-    <t>0.474+/-0.038</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.555+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.557+/-0.001</t>
-  </si>
-  <si>
-    <t>0.557+/-0.019</t>
-  </si>
-  <si>
-    <t>0.528+/-0.003</t>
-  </si>
-  <si>
-    <t>0.528+/-0.028</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.71+/-0.012</t>
-  </si>
-  <si>
-    <t>0.632+/-0.0</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.689+/-0.021</t>
-  </si>
-  <si>
-    <t>0.617+/-0.011</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.771+/-0.038</t>
-  </si>
-  <si>
-    <t>0.698+/-0.048</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>3.829+/-0.825</t>
-  </si>
-  <si>
-    <t>0.712+/-0.004</t>
-  </si>
-  <si>
-    <t>0.651+/-0.0</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>0.763+/-0.028</t>
-  </si>
-  <si>
-    <t>0.688+/-0.033</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.62+/-0.046</t>
-  </si>
-  <si>
-    <t>0.562+/-0.044</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.102+/-0.01</t>
-  </si>
-  <si>
-    <t>0.701+/-0.007</t>
-  </si>
-  <si>
-    <t>0.752+/-0.015</t>
-  </si>
-  <si>
-    <t>0.691+/-0.022</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.599+/-0.024</t>
-  </si>
-  <si>
-    <t>0.548+/-0.026</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.148+/-0.007</t>
-  </si>
-  <si>
-    <t>0.658+/-0.002</t>
-  </si>
-  <si>
-    <t>0.62+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.647+/-0.003</t>
-  </si>
-  <si>
-    <t>0.612+/-0.011</t>
-  </si>
-  <si>
-    <t>0.695+/-0.01</t>
-  </si>
-  <si>
-    <t>0.657+/-0.023</t>
-  </si>
-  <si>
-    <t>29.767+/-0.192</t>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.557+/-0.003</t>
+  </si>
+  <si>
+    <t>0.356+/-0.017</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.531+/-0.006</t>
+  </si>
+  <si>
+    <t>0.525+/-0.039</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.58+/-0.003</t>
+  </si>
+  <si>
+    <t>0.577+/-0.018</t>
+  </si>
+  <si>
+    <t>0.012+/-0.004</t>
+  </si>
+  <si>
+    <t>0.723+/-0.008</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.699+/-0.017</t>
+  </si>
+  <si>
+    <t>0.354+/-0.016</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.786+/-0.04</t>
+  </si>
+  <si>
+    <t>0.531+/-0.048</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.803+/-0.009</t>
+  </si>
+  <si>
+    <t>0.575+/-0.02</t>
+  </si>
+  <si>
+    <t>12.713+/-3.404</t>
+  </si>
+  <si>
+    <t>0.71+/-0.008</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741+/-0.027</t>
+  </si>
+  <si>
+    <t>0.355+/-0.026</t>
+  </si>
+  <si>
+    <t>0.652+/-0.061</t>
+  </si>
+  <si>
+    <t>0.384+/-0.067</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.805+/-0.01</t>
+  </si>
+  <si>
+    <t>0.548+/-0.023</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.155+/-0.01</t>
+  </si>
+  <si>
+    <t>0.694+/-0.008</t>
+  </si>
+  <si>
+    <t>0.593+/-0.0</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.718+/-0.025</t>
+  </si>
+  <si>
+    <t>0.363+/-0.025</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.646+/-0.067</t>
+  </si>
+  <si>
+    <t>0.413+/-0.058</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.786+/-0.008</t>
+  </si>
+  <si>
+    <t>0.557+/-0.016</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.235+/-0.007</t>
+  </si>
+  <si>
+    <t>0.661+/-0.005</t>
+  </si>
+  <si>
+    <t>0.577+/-0.0</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.651+/-0.003</t>
+  </si>
+  <si>
+    <t>0.375+/-0.01</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.695+/-0.016</t>
+  </si>
+  <si>
+    <t>0.56+/-0.026</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.73+/-0.003</t>
+  </si>
+  <si>
+    <t>0.6+/-0.015</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>47.055+/-0.423</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,31 +1653,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1412,31 +1685,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1444,31 +1717,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1476,31 +1749,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1508,31 +1781,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1540,31 +1813,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1572,31 +1845,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1604,31 +1877,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1636,31 +1909,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1668,31 +1941,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1742,31 +2111,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1774,31 +2143,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1806,31 +2175,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1838,31 +2207,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1870,31 +2239,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1902,31 +2271,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1934,31 +2303,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1966,31 +2335,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1998,31 +2367,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2030,31 +2399,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
         <v>159</v>
       </c>
-      <c r="I11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" t="s">
-        <v>178</v>
+      <c r="F12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2104,31 +2569,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2136,31 +2601,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2168,31 +2633,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2200,31 +2665,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2232,31 +2697,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2264,31 +2729,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2296,31 +2761,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2328,31 +2793,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="J9" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2360,31 +2825,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="J10" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2392,31 +2857,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="H11" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>234</v>
       </c>
-      <c r="I11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11" t="s">
-        <v>252</v>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +2987,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2466,31 +3027,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="J2" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2498,31 +3059,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2530,31 +3091,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>389</v>
       </c>
       <c r="J4" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2562,31 +3123,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="H5" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="J5" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2594,31 +3155,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>391</v>
       </c>
       <c r="J6" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2626,31 +3187,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>357</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2658,31 +3219,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="F8" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2690,31 +3251,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="H9" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
       <c r="J9" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2722,31 +3283,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2754,31 +3315,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="J11" t="s">
-        <v>321</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" t="s">
+        <v>397</v>
+      </c>
+      <c r="J12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" t="s">
+        <v>385</v>
+      </c>
+      <c r="I13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" t="s">
+        <v>386</v>
+      </c>
+      <c r="I14" t="s">
+        <v>399</v>
+      </c>
+      <c r="J14" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
